--- a/src/test/resources/excel/templates/seqRepRows.xlsx
+++ b/src/test/resources/excel/templates/seqRepRows.xlsx
@@ -219,9 +219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>784800</xdr:colOff>
+      <xdr:colOff>784080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -234,8 +234,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143160" y="208800"/>
-          <a:ext cx="1911960" cy="1242000"/>
+          <a:off x="3150720" y="208800"/>
+          <a:ext cx="1916280" cy="1241280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -255,13 +255,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -282,9 +282,6 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
